--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\black-desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A68A29-5541-4CFA-B3F5-028E0ACA3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFCA35-2C5E-45DB-BC34-CA1BF0955493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="2258" windowWidth="29573" windowHeight="19102" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="6382" yWindow="2048" windowWidth="29573" windowHeight="19102" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>[StageSequenceData]</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Yellow Room</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Waves</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>stageName</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -467,10 +467,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -566,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -574,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -582,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -598,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -606,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -614,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFCA35-2C5E-45DB-BC34-CA1BF0955493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098C6F0-624C-4E5F-97D6-EA3444011A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6382" yWindow="2048" windowWidth="29573" windowHeight="19102" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
@@ -34,69 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>[StageSequenceData]</t>
   </si>
   <si>
-    <t>Yellow Room</t>
+    <t>stageName</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>stageId</t>
   </si>
   <si>
-    <t>Ear</t>
+    <t>001</t>
   </si>
   <si>
-    <t>Earring</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Easy128</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Hay</t>
-  </si>
-  <si>
-    <t>Mona</t>
-  </si>
-  <si>
-    <t>Napoleon</t>
-  </si>
-  <si>
-    <t>Piper</t>
-  </si>
-  <si>
-    <t>Sketchbook</t>
-  </si>
-  <si>
-    <t>TestStage1</t>
-  </si>
-  <si>
-    <t>TestStage2</t>
-  </si>
-  <si>
-    <t>TwoCircle</t>
-  </si>
-  <si>
-    <t>Vase</t>
-  </si>
-  <si>
-    <t>Velvet</t>
-  </si>
-  <si>
-    <t>Waves</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>stageName</t>
+    <t>002</t>
   </si>
 </sst>
 </file>
@@ -132,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -467,154 +420,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098C6F0-624C-4E5F-97D6-EA3444011A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45F17A-B656-4FEB-90D2-F8DBCE0FE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6382" yWindow="2048" windowWidth="29573" windowHeight="19102" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21345" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -442,6 +454,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\black-android\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-ios/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45F17A-B656-4FEB-90D2-F8DBCE0FE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A315216-51D8-5345-8FCD-1512FAEC7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21345" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -61,16 +61,94 @@
   </si>
   <si>
     <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,24 +491,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -438,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -446,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -454,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -462,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -470,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -478,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -486,7 +564,200 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-ios/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A315216-51D8-5345-8FCD-1512FAEC7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F7994B-CC58-B548-995E-969C81AB2C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="12600" yWindow="7460" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -133,6 +133,240 @@
   </si>
   <si>
     <t>030</t>
+  </si>
+  <si>
+    <t>피트 몬드리안</t>
+  </si>
+  <si>
+    <t>회색과 빨간색 구성</t>
+  </si>
+  <si>
+    <t>회색과 빨간색의 구성에서도 완성됨이 느껴진다.</t>
+  </si>
+  <si>
+    <t>마름모꼴 구성</t>
+  </si>
+  <si>
+    <t>인생은 사실 수평과 수직이 안의 마름모꼴이 아닐까</t>
+  </si>
+  <si>
+    <t>구성</t>
+  </si>
+  <si>
+    <t>이 화면의 구성안에는 세상의 모든 것이 담겨있다.</t>
+  </si>
+  <si>
+    <t>에두아르 마네</t>
+  </si>
+  <si>
+    <t>바다 전망, 고요한 날씨</t>
+  </si>
+  <si>
+    <t>그림은 고요할지언정 더치에는 힘이 있다.</t>
+  </si>
+  <si>
+    <t>에드바르 뭉크</t>
+  </si>
+  <si>
+    <t>해변의 두 여인</t>
+  </si>
+  <si>
+    <t>흑과 백이 대지처럼 나누어진 두 여인. 무슨 사연일까</t>
+  </si>
+  <si>
+    <t>폴 세뤼지에</t>
+  </si>
+  <si>
+    <t>르 폴드 그랑 사블 해변</t>
+  </si>
+  <si>
+    <t>황금빛 해변, 고단함과 고요함이 느껴진다.</t>
+  </si>
+  <si>
+    <t>폴 고갱</t>
+  </si>
+  <si>
+    <t>화가 어머니의 초상, 이브</t>
+  </si>
+  <si>
+    <t>고갱이 있기까지는 위대한 화가의 어머니가 있었다.</t>
+  </si>
+  <si>
+    <t>윈슬로 호머</t>
+  </si>
+  <si>
+    <t>노스우즈 클럽</t>
+  </si>
+  <si>
+    <t>푸른 숲과 아름다운 동물, 총소리</t>
+  </si>
+  <si>
+    <t>목욕하는 소년들</t>
+  </si>
+  <si>
+    <t>자유로운 물속의 소년들. 물에 흩어질 것 같다.</t>
+  </si>
+  <si>
+    <t>요하네스 페르메이르</t>
+  </si>
+  <si>
+    <t>진주 귀고리를 한 소녀</t>
+  </si>
+  <si>
+    <t>진주 귀걸이는 정말로 소녀의 귀에 닿은 걸까?</t>
+  </si>
+  <si>
+    <t>피리부는 소년</t>
+  </si>
+  <si>
+    <t>발그레한 볼의 소년에게 제일 먼저 시선이 간다.</t>
+  </si>
+  <si>
+    <t>앙리 드 툴루즈 로트렉</t>
+  </si>
+  <si>
+    <t>물랑루즈의 영국인</t>
+  </si>
+  <si>
+    <t>이 작가는 포스터를 작품의 경지로 끌어올렸다.</t>
+  </si>
+  <si>
+    <t>패턴</t>
+  </si>
+  <si>
+    <t>1800년대의 직물의 패턴</t>
+  </si>
+  <si>
+    <t>아리스티드 브뤼앙</t>
+  </si>
+  <si>
+    <t>편견 없이 보고, 편견 없이 그린다.</t>
+  </si>
+  <si>
+    <t>파편</t>
+  </si>
+  <si>
+    <t>1800년대의 무늬</t>
+  </si>
+  <si>
+    <t>빈센트 반 고흐</t>
+  </si>
+  <si>
+    <t>해바라기</t>
+  </si>
+  <si>
+    <t>해바라기를 그릴 때의 고흐는 행복했다.</t>
+  </si>
+  <si>
+    <t>메리 카사트</t>
+  </si>
+  <si>
+    <t>모성애</t>
+  </si>
+  <si>
+    <t>섬세한 선과 아름다운 표현, 판화풍의 그림이다</t>
+  </si>
+  <si>
+    <t>귀에 붕대를 감은 자화상</t>
+  </si>
+  <si>
+    <t>붕대를 품은 판다, 아니 판다를 품은 자화상.</t>
+  </si>
+  <si>
+    <t>목욕하는 여인</t>
+  </si>
+  <si>
+    <t>여인의 아름다운 선에 리듬감이 느껴진다.</t>
+  </si>
+  <si>
+    <t>언제 결혼하니</t>
+  </si>
+  <si>
+    <t>언제 결혼하니, 그런 걸 왜 묻니</t>
+  </si>
+  <si>
+    <t>자화상</t>
+  </si>
+  <si>
+    <t>자화상과 배경의 물결에는 그의 불안이 담겨있다.</t>
+  </si>
+  <si>
+    <t>가셰 박사의 초상</t>
+  </si>
+  <si>
+    <t>작품을 완성한 달은, 고흐 생의 마지막 달이었다.</t>
+  </si>
+  <si>
+    <t>가쓰시카 호쿠사이</t>
+  </si>
+  <si>
+    <t>가나가와 해변의 높은 파도아래</t>
+  </si>
+  <si>
+    <t>세상에서 가장 유명한 파도 그림, 파도가 역동적이다.</t>
+  </si>
+  <si>
+    <t>꽃을 든 여인</t>
+  </si>
+  <si>
+    <t>선명하고 아름다운 색감의 이국적인 여인</t>
+  </si>
+  <si>
+    <t>뱃놀이</t>
+  </si>
+  <si>
+    <t>물이 잔잔한 날 친구와 여유를 즐기면 좋겠어</t>
+  </si>
+  <si>
+    <t>폴 세잔</t>
+  </si>
+  <si>
+    <t>사과 바구니가 있는 정물</t>
+  </si>
+  <si>
+    <t>각각 배치되어 있는 사과와 정물에서 고집이 느껴진다</t>
+  </si>
+  <si>
+    <t>마틴 존슨 헤데</t>
+  </si>
+  <si>
+    <t>블루 벨벳천과 목련</t>
+  </si>
+  <si>
+    <t>커다랗고 탐스러운 자연물을 그리는 건 즐겁다</t>
+  </si>
+  <si>
+    <t>민화 호작도, 까치와 호랑이</t>
+  </si>
+  <si>
+    <t>신년을 맞이하여 좋은 소식을 전한다.</t>
+  </si>
+  <si>
+    <t>지오반니 바티스타 살비</t>
+  </si>
+  <si>
+    <t>기도하는 성모마리아</t>
+  </si>
+  <si>
+    <t>가끔 기도하고 싶을 땐 그냥 손을 모아본다</t>
+  </si>
+  <si>
+    <t>가츠카와 슌쇼</t>
+  </si>
+  <si>
+    <t>배우 오타니 히로지3세</t>
+  </si>
+  <si>
+    <t>평면의 판화, 색과 선에서 삶이 느껴진다.</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
@@ -491,273 +725,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3 B4:B32" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-ios/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F7994B-CC58-B548-995E-969C81AB2C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07ED88-85B8-5B4D-B54E-CDF8DD158CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12600" yWindow="7460" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>starCount</t>
+  </si>
+  <si>
+    <t>remainTime</t>
+  </si>
+  <si>
+    <t>skipLock</t>
   </si>
 </sst>
 </file>
@@ -725,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,14 +747,16 @@
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -761,8 +772,17 @@
       <c r="E2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -778,8 +798,17 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -795,8 +824,17 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -812,8 +850,17 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -829,8 +876,17 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -846,8 +902,17 @@
       <c r="E7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -863,8 +928,17 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -880,8 +954,17 @@
       <c r="E9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -897,8 +980,17 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -914,8 +1006,17 @@
       <c r="E11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -931,8 +1032,17 @@
       <c r="E12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -948,8 +1058,17 @@
       <c r="E13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -965,8 +1084,17 @@
       <c r="E14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -979,8 +1107,17 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -996,8 +1133,17 @@
       <c r="E16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1010,8 +1156,17 @@
       <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1200</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1027,8 +1182,17 @@
       <c r="E18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1044,8 +1208,17 @@
       <c r="E19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1061,8 +1234,17 @@
       <c r="E20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1078,8 +1260,17 @@
       <c r="E21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1095,8 +1286,17 @@
       <c r="E22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1200</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1112,8 +1312,17 @@
       <c r="E23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1129,8 +1338,17 @@
       <c r="E24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1146,8 +1364,17 @@
       <c r="E25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1163,8 +1390,17 @@
       <c r="E26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1180,8 +1416,17 @@
       <c r="E27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>1200</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1197,8 +1442,17 @@
       <c r="E28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1214,8 +1468,17 @@
       <c r="E29" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1228,8 +1491,17 @@
       <c r="E30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1245,8 +1517,17 @@
       <c r="E31" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1261,6 +1542,15 @@
       </c>
       <c r="E32" t="s">
         <v>107</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>1200</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-ios/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07ED88-85B8-5B4D-B54E-CDF8DD158CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865393D-988A-1643-AD85-6C825B11C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12600" yWindow="7460" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>바다 전망, 고요한 날씨</t>
   </si>
   <si>
-    <t>그림은 고요할지언정 더치에는 힘이 있다.</t>
-  </si>
-  <si>
     <t>에드바르 뭉크</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>skipLock</t>
+  </si>
+  <si>
+    <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,22 +764,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -894,13 +894,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -920,13 +920,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -946,13 +946,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -998,13 +998,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1024,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1076,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1102,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1125,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1174,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1200,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1226,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
         <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -1252,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1278,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1304,13 +1304,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -1330,13 +1330,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1356,13 +1356,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1382,13 +1382,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
         <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1411,10 +1411,10 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1434,13 +1434,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1460,13 +1460,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1486,10 +1486,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
         <v>102</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1535,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
       </c>
       <c r="F32">
         <v>6</v>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865393D-988A-1643-AD85-6C825B11C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2036EDD-1B0B-43C0-8257-AC83D40B40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="7460" windowWidth="38600" windowHeight="21340" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>테스트</t>
   </si>
 </sst>
 </file>
@@ -734,29 +740,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +788,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -808,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -834,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -860,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -912,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1550,6 +1556,32 @@
         <v>1200</v>
       </c>
       <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2036EDD-1B0B-43C0-8257-AC83D40B40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E2A6A9-A6EC-4951-B3FD-A871F7CDB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -376,12 +376,6 @@
   </si>
   <si>
     <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>테스트</t>
   </si>
 </sst>
 </file>
@@ -740,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1559,32 +1553,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E2A6A9-A6EC-4951-B3FD-A871F7CDB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F3F51-0FC3-442F-89A0-3BF52776F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="8310" yWindow="4980" windowWidth="28103" windowHeight="15923" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
   </si>
 </sst>
 </file>
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1553,6 +1565,110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/repos/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F3F51-0FC3-442F-89A0-3BF52776F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAEE1FE-A033-A04A-A27F-3F06EDB21E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="4980" windowWidth="28103" windowHeight="15923" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="15160" yWindow="8860" windowWidth="28100" windowHeight="15920" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -388,6 +388,33 @@
   </si>
   <si>
     <t>034</t>
+  </si>
+  <si>
+    <t>바실리 칸딘스키</t>
+  </si>
+  <si>
+    <t>Painting with Troika</t>
+  </si>
+  <si>
+    <t>Twelve-Point Star</t>
+  </si>
+  <si>
+    <t>신의 날</t>
+  </si>
+  <si>
+    <t>Houses at Murnau</t>
+  </si>
+  <si>
+    <t>독일 남부 바이에른 지방의 소도시 무르나우의 풍경이다.</t>
+  </si>
+  <si>
+    <t>Khar Gerd에서 발견된 작자 미상 모자이크 타일이다.</t>
+  </si>
+  <si>
+    <t>역동적인 말 썰매 모습이 시선을 강탈한다.</t>
+  </si>
+  <si>
+    <t>종교 의식 장면에서 구성의 아름다움이 보인다.</t>
   </si>
 </sst>
 </file>
@@ -748,27 +775,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +821,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -820,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -846,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -872,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -898,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -924,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -950,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1002,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1080,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1106,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1129,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1155,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1204,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1256,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1282,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1308,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1334,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1360,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1386,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1412,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1438,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1464,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1513,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1539,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1565,21 +1592,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="E33">
-        <v>31</v>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -1591,21 +1618,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>32</v>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -1617,21 +1644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>33</v>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -1643,21 +1667,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <v>34</v>
-      </c>
-      <c r="E36">
-        <v>34</v>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
       </c>
       <c r="F36">
         <v>6</v>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/repos/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAEE1FE-A033-A04A-A27F-3F06EDB21E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1F740-3DD2-8447-A772-27776141DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15160" yWindow="8860" windowWidth="28100" windowHeight="15920" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="12280" yWindow="1260" windowWidth="28100" windowHeight="15920" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -415,6 +415,96 @@
   </si>
   <si>
     <t>종교 의식 장면에서 구성의 아름다움이 보인다.</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>노란방</t>
+  </si>
+  <si>
+    <t>생선이 있는 정물</t>
+  </si>
+  <si>
+    <t>윌리엄 하넷</t>
+  </si>
+  <si>
+    <t>이중섭</t>
+  </si>
+  <si>
+    <t>소</t>
+  </si>
+  <si>
+    <t>자크루이 다비드</t>
+  </si>
+  <si>
+    <t>알프스를 넘고 있는 나폴레옹</t>
+  </si>
+  <si>
+    <t>고흐는 이 그림을 자신의 주요 작품 중 하나라고 생각했다.</t>
+  </si>
+  <si>
+    <t>고흐는 아이리스를 그리면서 마음의 위안을 얻었다.</t>
+  </si>
+  <si>
+    <t>아이리스 (첫 번째)</t>
+  </si>
+  <si>
+    <t>아이리스 (두 번째)</t>
+  </si>
+  <si>
+    <t>아이리스 (세 번째)</t>
+  </si>
+  <si>
+    <t>아이리스 (네 번째 - 마지막)</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>그 옛날에도 생선에는 레몬이었나보다.</t>
+  </si>
+  <si>
+    <t>디저트 (첫 번째)</t>
+  </si>
+  <si>
+    <t>디저트 (두 번째)</t>
+  </si>
+  <si>
+    <t>디저트 (세 번째)</t>
+  </si>
+  <si>
+    <t>디저트 (네 번째 - 마지막)</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
   </si>
 </sst>
 </file>
@@ -436,12 +526,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,9 +558,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +583,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -788,6 +894,7 @@
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1592,104 +1699,398 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="F34" s="2">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="b">
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="4">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/repos/black-android/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1F740-3DD2-8447-A772-27776141DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B12BA8C-0C16-4933-A121-A2E8963B132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="1260" windowWidth="28100" windowHeight="15920" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21075" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>MrHup</t>
+  </si>
+  <si>
+    <t>인공 도시</t>
+  </si>
+  <si>
+    <t>인공지능 기술로 그린 그림. 이제 인간이 설 자리는 어디인가?</t>
   </si>
 </sst>
 </file>
@@ -583,7 +595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,30 +891,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -928,7 +940,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -954,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -980,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1751,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -2091,6 +2103,32 @@
         <v>0</v>
       </c>
       <c r="H48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B12BA8C-0C16-4933-A121-A2E8963B132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B879E0-BCD5-47F9-9E5C-6A714929657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21075" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView xWindow="3053" yWindow="5535" windowWidth="28799" windowHeight="15383" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="165">
   <si>
     <t>[StageSequenceData]</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>인공지능 기술로 그린 그림. 이제 인간이 설 자리는 어디인가?</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>달밤의 환상 세계</t>
+  </si>
+  <si>
+    <t>Midjourney</t>
+  </si>
+  <si>
+    <t>인공지능 기술로 그린 그림. 멋진 그림이 단 몇 초만에 만들어진다.</t>
   </si>
 </sst>
 </file>
@@ -595,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -635,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -741,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -883,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2132,6 +2144,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
